--- a/result/table/top10_all.xlsx
+++ b/result/table/top10_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,65 +789,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>7170</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>8535</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>지가</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97</v>
+        <v>52307</v>
       </c>
       <c r="C24" t="n">
-        <v>99</v>
+        <v>55421</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>59693</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7170</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>8535</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>8875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>종사자수</t>
+          <t>지가</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52307</v>
+        <v>97</v>
       </c>
       <c r="C26" t="n">
-        <v>55421</v>
+        <v>99</v>
       </c>
       <c r="D26" t="n">
-        <v>59693</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -880,22 +880,6 @@
       </c>
       <c r="D28" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>월평균소득</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>3064086</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3099369</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2947486</v>
       </c>
     </row>
   </sheetData>
